--- a/restaurant_sales_1200_07.02.2026.xlsx
+++ b/restaurant_sales_1200_07.02.2026.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASDC1\Desktop\Jiya_Github\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{73753144-C211-47FD-833D-43AF06628BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CD02D-7A22-4F23-A09A-D5BF553A1D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4822" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4816" uniqueCount="327">
   <si>
     <t>OrderID</t>
   </si>
@@ -1027,7 +1027,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1588,7 +1588,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[restaurant_sales_1200.xlsx]Sheet1!PivotTable1</c:name>
+    <c:name>[restaurant_sales_1200_07.02.2026.xlsx]Sheet1!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1993,9 +1993,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$4:$A$14</c:f>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>East</c:v>
@@ -2006,27 +2006,9 @@
                   <c:pt idx="2">
                     <c:v>South</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>West</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>East</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>North</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>South</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>West</c:v>
-                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Continental</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
                     <c:v>Main Course</c:v>
                   </c:pt>
                 </c:lvl>
@@ -2035,33 +2017,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>68017</c:v>
+                  <c:v>7480</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96060</c:v>
+                  <c:v>7004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>84332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84805</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>117160</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>108936</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>89928</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>101798</c:v>
+                  <c:v>3856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2849,8 +2816,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Region">
@@ -2873,7 +2840,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2927,8 +2894,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="MenuItem">
@@ -2951,7 +2918,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3005,8 +2972,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Quantity">
@@ -3029,7 +2996,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3110,7 +3077,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="ASDC1" refreshedDate="46060.828834143518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1200">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ASDC1" refreshedDate="46060.828834143518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1200" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:I1201" sheet="restaurant_sales_1200"/>
   </cacheSource>
@@ -17038,8 +17005,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
     <pivotField numFmtId="47" showAll="0"/>
@@ -17065,26 +17032,26 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="11">
-        <item x="7"/>
-        <item x="3"/>
+        <item h="1" x="7"/>
+        <item h="1" x="3"/>
         <item x="5"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="9"/>
+        <item h="1" x="8"/>
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
+        <item h="1" x="6"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="6">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -17751,22 +17718,7 @@
     <field x="4"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="4"/>
     </i>
@@ -17778,9 +17730,6 @@
     </i>
     <i r="1">
       <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -17825,7 +17774,7 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Region" sourceName="Region">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{00000000-0013-0000-FFFF-FFFF01000000}" sourceName="Region">
   <pivotTables>
     <pivotTable tabId="2" name="PivotTable1"/>
   </pivotTables>
@@ -17835,7 +17784,7 @@
         <i x="3" s="1"/>
         <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2" s="1"/>
+        <i x="2" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -17843,23 +17792,23 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_MenuItem" sourceName="MenuItem">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_MenuItem" xr10:uid="{00000000-0013-0000-FFFF-FFFF02000000}" sourceName="MenuItem">
   <pivotTables>
     <pivotTable tabId="2" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1594783545">
       <items count="10">
-        <i x="7" s="1"/>
-        <i x="3" s="1"/>
+        <i x="7"/>
+        <i x="3"/>
         <i x="5" s="1"/>
-        <i x="9" s="1"/>
-        <i x="8" s="1"/>
-        <i x="0" s="1"/>
-        <i x="4" s="1"/>
-        <i x="6" s="1"/>
-        <i x="2" s="1"/>
-        <i x="1" s="1"/>
+        <i x="9"/>
+        <i x="8"/>
+        <i x="0"/>
+        <i x="4"/>
+        <i x="6"/>
+        <i x="2"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -17867,18 +17816,18 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Quantity" sourceName="Quantity">
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Quantity" xr10:uid="{00000000-0013-0000-FFFF-FFFF03000000}" sourceName="Quantity">
   <pivotTables>
     <pivotTable tabId="2" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1594783545">
       <items count="5">
-        <i x="4" s="1"/>
-        <i x="3" s="1"/>
-        <i x="2" s="1"/>
+        <i x="4"/>
+        <i x="3"/>
+        <i x="2"/>
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -17886,10 +17835,10 @@
 </file>
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Region" cache="Slicer_Region" caption="Region" rowHeight="241300"/>
-  <slicer name="MenuItem" cache="Slicer_MenuItem" caption="MenuItem" rowHeight="241300"/>
-  <slicer name="Quantity" cache="Slicer_Quantity" caption="Quantity" rowHeight="241300"/>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Region" xr10:uid="{00000000-0014-0000-FFFF-FFFF01000000}" cache="Slicer_Region" caption="Region" rowHeight="241300"/>
+  <slicer name="MenuItem" xr10:uid="{00000000-0014-0000-FFFF-FFFF02000000}" cache="Slicer_MenuItem" caption="MenuItem" rowHeight="241300"/>
+  <slicer name="Quantity" xr10:uid="{00000000-0014-0000-FFFF-FFFF03000000}" cache="Slicer_Quantity" caption="Quantity" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -18189,8 +18138,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A8" sqref="A7:A10 A12:A15"/>
@@ -18235,10 +18184,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5">
-        <v>333214</v>
+        <v>18340</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -18246,7 +18195,7 @@
         <v>28</v>
       </c>
       <c r="B5" s="5">
-        <v>68017</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -18254,7 +18203,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>96060</v>
+        <v>7004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -18262,63 +18211,15 @@
         <v>14</v>
       </c>
       <c r="B7" s="5">
-        <v>84332</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>17</v>
+      <c r="A8" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="B8" s="5">
-        <v>84805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>417822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5">
-        <v>117160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>108936</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5">
-        <v>89928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
-        <v>101798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B14" s="5">
-        <v>751036</v>
+        <v>18340</v>
       </c>
     </row>
   </sheetData>
@@ -18335,7 +18236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
